--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Bmp2-Eng.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Bmp2-Eng.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.672264666666667</v>
+        <v>4.499283333333334</v>
       </c>
       <c r="H2">
-        <v>8.016794000000001</v>
+        <v>13.49785</v>
       </c>
       <c r="I2">
-        <v>0.2139333398392942</v>
+        <v>0.583046232715136</v>
       </c>
       <c r="J2">
-        <v>0.2639485859587926</v>
+        <v>0.6111950921276581</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>203.934102</v>
+        <v>166.3936563333333</v>
       </c>
       <c r="N2">
-        <v>611.802306</v>
+        <v>499.180969</v>
       </c>
       <c r="O2">
-        <v>0.7110513071461264</v>
+        <v>0.6959913618211631</v>
       </c>
       <c r="P2">
-        <v>0.7295999567593805</v>
+        <v>0.7009944564025758</v>
       </c>
       <c r="Q2">
-        <v>544.9658951029961</v>
+        <v>748.6522047129611</v>
       </c>
       <c r="R2">
-        <v>4904.693055926965</v>
+        <v>6737.86984241665</v>
       </c>
       <c r="S2">
-        <v>0.1521175809348666</v>
+        <v>0.4057951415121063</v>
       </c>
       <c r="T2">
-        <v>0.1925768769022347</v>
+        <v>0.42844437136195</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.672264666666667</v>
+        <v>4.499283333333334</v>
       </c>
       <c r="H3">
-        <v>8.016794000000001</v>
+        <v>13.49785</v>
       </c>
       <c r="I3">
-        <v>0.2139333398392942</v>
+        <v>0.583046232715136</v>
       </c>
       <c r="J3">
-        <v>0.2639485859587926</v>
+        <v>0.6111950921276581</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>146.311485</v>
       </c>
       <c r="O3">
-        <v>0.1700467154822082</v>
+        <v>0.2039972194837954</v>
       </c>
       <c r="P3">
-        <v>0.174482593613174</v>
+        <v>0.2054636419703505</v>
       </c>
       <c r="Q3">
-        <v>130.3276705643434</v>
+        <v>219.4322753119167</v>
       </c>
       <c r="R3">
-        <v>1172.94903507909</v>
+        <v>1974.89047780725</v>
       </c>
       <c r="S3">
-        <v>0.03637866177181102</v>
+        <v>0.1189398103043897</v>
       </c>
       <c r="T3">
-        <v>0.04605443385861994</v>
+        <v>0.1255783695829525</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.672264666666667</v>
+        <v>4.499283333333334</v>
       </c>
       <c r="H4">
-        <v>8.016794000000001</v>
+        <v>13.49785</v>
       </c>
       <c r="I4">
-        <v>0.2139333398392942</v>
+        <v>0.583046232715136</v>
       </c>
       <c r="J4">
-        <v>0.2639485859587926</v>
+        <v>0.6111950921276581</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.225689</v>
+        <v>7.402863</v>
       </c>
       <c r="N4">
-        <v>21.677067</v>
+        <v>22.208589</v>
       </c>
       <c r="O4">
-        <v>0.02519360694505809</v>
+        <v>0.03096469429353687</v>
       </c>
       <c r="P4">
-        <v>0.02585081322964185</v>
+        <v>0.03118728224898178</v>
       </c>
       <c r="Q4">
-        <v>19.308953407022</v>
+        <v>33.30757811485</v>
       </c>
       <c r="R4">
-        <v>173.780580663198</v>
+        <v>299.76820303365</v>
       </c>
       <c r="S4">
-        <v>0.005389752476354716</v>
+        <v>0.01805384835502254</v>
       </c>
       <c r="T4">
-        <v>0.006823285597848816</v>
+        <v>0.0190615138473777</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.672264666666667</v>
+        <v>4.499283333333334</v>
       </c>
       <c r="H5">
-        <v>8.016794000000001</v>
+        <v>13.49785</v>
       </c>
       <c r="I5">
-        <v>0.2139333398392942</v>
+        <v>0.583046232715136</v>
       </c>
       <c r="J5">
-        <v>0.2639485859587926</v>
+        <v>0.6111950921276581</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>21.8744765</v>
+        <v>5.118919500000001</v>
       </c>
       <c r="N5">
-        <v>43.748953</v>
+        <v>10.237839</v>
       </c>
       <c r="O5">
-        <v>0.07626912299573232</v>
+        <v>0.02141141574965316</v>
       </c>
       <c r="P5">
-        <v>0.05217246470638207</v>
+        <v>0.0143768870013594</v>
       </c>
       <c r="Q5">
-        <v>58.45439065278034</v>
+        <v>23.031469191025</v>
       </c>
       <c r="R5">
-        <v>350.726343916682</v>
+        <v>138.18881514615</v>
       </c>
       <c r="S5">
-        <v>0.01631650820909093</v>
+        <v>0.0124838452899328</v>
       </c>
       <c r="T5">
-        <v>0.01377084828523456</v>
+        <v>0.008787082775304791</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.672264666666667</v>
+        <v>4.499283333333334</v>
       </c>
       <c r="H6">
-        <v>8.016794000000001</v>
+        <v>13.49785</v>
       </c>
       <c r="I6">
-        <v>0.2139333398392942</v>
+        <v>0.583046232715136</v>
       </c>
       <c r="J6">
-        <v>0.2639485859587926</v>
+        <v>0.6111950921276581</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.001688666666666</v>
+        <v>11.38837866666667</v>
       </c>
       <c r="N6">
-        <v>15.005066</v>
+        <v>34.165136</v>
       </c>
       <c r="O6">
-        <v>0.01743924743087499</v>
+        <v>0.04763530865185137</v>
       </c>
       <c r="P6">
-        <v>0.01789417169142159</v>
+        <v>0.04797773237673265</v>
       </c>
       <c r="Q6">
-        <v>13.36583589760045</v>
+        <v>51.23954232862223</v>
       </c>
       <c r="R6">
-        <v>120.292523078404</v>
+        <v>461.1558809576001</v>
       </c>
       <c r="S6">
-        <v>0.003730836447170919</v>
+        <v>0.02777358725368466</v>
       </c>
       <c r="T6">
-        <v>0.004723141314854585</v>
+        <v>0.02932375456007323</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>5.05677</v>
       </c>
       <c r="I7">
-        <v>0.1349431823867681</v>
+        <v>0.2184296534786591</v>
       </c>
       <c r="J7">
-        <v>0.1664914042968852</v>
+        <v>0.228975207608499</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>203.934102</v>
+        <v>166.3936563333333</v>
       </c>
       <c r="N7">
-        <v>611.802306</v>
+        <v>499.180969</v>
       </c>
       <c r="O7">
-        <v>0.7110513071461264</v>
+        <v>0.6959913618211631</v>
       </c>
       <c r="P7">
-        <v>0.7295999567593805</v>
+        <v>0.7009944564025758</v>
       </c>
       <c r="Q7">
-        <v>343.7492829901801</v>
+        <v>280.4714831789033</v>
       </c>
       <c r="R7">
-        <v>3093.74354691162</v>
+        <v>2524.24334861013</v>
       </c>
       <c r="S7">
-        <v>0.09595152622656956</v>
+        <v>0.1520251519867367</v>
       </c>
       <c r="T7">
-        <v>0.121472121375816</v>
+        <v>0.1605103511871867</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>5.05677</v>
       </c>
       <c r="I8">
-        <v>0.1349431823867681</v>
+        <v>0.2184296534786591</v>
       </c>
       <c r="J8">
-        <v>0.1664914042968852</v>
+        <v>0.228975207608499</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>146.311485</v>
       </c>
       <c r="O8">
-        <v>0.1700467154822082</v>
+        <v>0.2039972194837954</v>
       </c>
       <c r="P8">
-        <v>0.174482593613174</v>
+        <v>0.2054636419703505</v>
       </c>
       <c r="Q8">
         <v>82.20705866705002</v>
@@ -948,10 +948,10 @@
         <v>739.86352800345</v>
       </c>
       <c r="S8">
-        <v>0.02294664494158647</v>
+        <v>0.04455904196245539</v>
       </c>
       <c r="T8">
-        <v>0.02904985203602008</v>
+        <v>0.04704608007615931</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>5.05677</v>
       </c>
       <c r="I9">
-        <v>0.1349431823867681</v>
+        <v>0.2184296534786591</v>
       </c>
       <c r="J9">
-        <v>0.1664914042968852</v>
+        <v>0.228975207608499</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>7.225689</v>
+        <v>7.402863</v>
       </c>
       <c r="N9">
-        <v>21.677067</v>
+        <v>22.208589</v>
       </c>
       <c r="O9">
-        <v>0.02519360694505809</v>
+        <v>0.03096469429353687</v>
       </c>
       <c r="P9">
-        <v>0.02585081322964185</v>
+        <v>0.03118728224898178</v>
       </c>
       <c r="Q9">
-        <v>12.17954912151</v>
+        <v>12.47819184417</v>
       </c>
       <c r="R9">
-        <v>109.61594209359</v>
+        <v>112.30372659753</v>
       </c>
       <c r="S9">
-        <v>0.003399705496967521</v>
+        <v>0.006763607444609869</v>
       </c>
       <c r="T9">
-        <v>0.00430393819681957</v>
+        <v>0.007141114427705459</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>5.05677</v>
       </c>
       <c r="I10">
-        <v>0.1349431823867681</v>
+        <v>0.2184296534786591</v>
       </c>
       <c r="J10">
-        <v>0.1664914042968852</v>
+        <v>0.228975207608499</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>21.8744765</v>
+        <v>5.118919500000001</v>
       </c>
       <c r="N10">
-        <v>43.748953</v>
+        <v>10.237839</v>
       </c>
       <c r="O10">
-        <v>0.07626912299573232</v>
+        <v>0.02141141574965316</v>
       </c>
       <c r="P10">
-        <v>0.05217246470638207</v>
+        <v>0.0143768870013594</v>
       </c>
       <c r="Q10">
-        <v>36.87139884363501</v>
+        <v>8.628399520005001</v>
       </c>
       <c r="R10">
-        <v>221.22839306181</v>
+        <v>51.77039712003</v>
       </c>
       <c r="S10">
-        <v>0.01029199817489195</v>
+        <v>0.004676888122684242</v>
       </c>
       <c r="T10">
-        <v>0.008686266914595233</v>
+        <v>0.0032919506859002</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>5.05677</v>
       </c>
       <c r="I11">
-        <v>0.1349431823867681</v>
+        <v>0.2184296534786591</v>
       </c>
       <c r="J11">
-        <v>0.1664914042968852</v>
+        <v>0.228975207608499</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>5.001688666666666</v>
+        <v>11.38837866666667</v>
       </c>
       <c r="N11">
-        <v>15.005066</v>
+        <v>34.165136</v>
       </c>
       <c r="O11">
-        <v>0.01743924743087499</v>
+        <v>0.04763530865185137</v>
       </c>
       <c r="P11">
-        <v>0.01789417169142159</v>
+        <v>0.04797773237673265</v>
       </c>
       <c r="Q11">
-        <v>8.430796399646667</v>
+        <v>19.19613719674667</v>
       </c>
       <c r="R11">
-        <v>75.87716759682</v>
+        <v>172.76523477072</v>
       </c>
       <c r="S11">
-        <v>0.002353307546752541</v>
+        <v>0.01040496396217286</v>
       </c>
       <c r="T11">
-        <v>0.00297922577363435</v>
+        <v>0.01098571123154736</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.5508483333333334</v>
+        <v>0.269395</v>
       </c>
       <c r="H12">
-        <v>1.652545</v>
+        <v>0.808185</v>
       </c>
       <c r="I12">
-        <v>0.04409923356952</v>
+        <v>0.03490994636826474</v>
       </c>
       <c r="J12">
-        <v>0.05440914609796297</v>
+        <v>0.03659536189327867</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>203.934102</v>
+        <v>166.3936563333333</v>
       </c>
       <c r="N12">
-        <v>611.802306</v>
+        <v>499.180969</v>
       </c>
       <c r="O12">
-        <v>0.7110513071461264</v>
+        <v>0.6959913618211631</v>
       </c>
       <c r="P12">
-        <v>0.7295999567593805</v>
+        <v>0.7009944564025758</v>
       </c>
       <c r="Q12">
-        <v>112.33676019653</v>
+        <v>44.82561904791833</v>
       </c>
       <c r="R12">
-        <v>1011.03084176877</v>
+        <v>403.430571431265</v>
       </c>
       <c r="S12">
-        <v>0.03135681767374953</v>
+        <v>0.02429702111395234</v>
       </c>
       <c r="T12">
-        <v>0.0396969106403886</v>
+        <v>0.02565314581723442</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.5508483333333334</v>
+        <v>0.269395</v>
       </c>
       <c r="H13">
-        <v>1.652545</v>
+        <v>0.808185</v>
       </c>
       <c r="I13">
-        <v>0.04409923356952</v>
+        <v>0.03490994636826474</v>
       </c>
       <c r="J13">
-        <v>0.05440914609796297</v>
+        <v>0.03659536189327867</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>146.311485</v>
       </c>
       <c r="O13">
-        <v>0.1700467154822082</v>
+        <v>0.2039972194837954</v>
       </c>
       <c r="P13">
-        <v>0.174482593613174</v>
+        <v>0.2054636419703505</v>
       </c>
       <c r="Q13">
-        <v>26.86514588659167</v>
+        <v>13.138527500525</v>
       </c>
       <c r="R13">
-        <v>241.786312979325</v>
+        <v>118.246747504725</v>
       </c>
       <c r="S13">
-        <v>0.00749892982377961</v>
+        <v>0.007121531991454428</v>
       </c>
       <c r="T13">
-        <v>0.009493448927450686</v>
+        <v>0.007519016333816016</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.5508483333333334</v>
+        <v>0.269395</v>
       </c>
       <c r="H14">
-        <v>1.652545</v>
+        <v>0.808185</v>
       </c>
       <c r="I14">
-        <v>0.04409923356952</v>
+        <v>0.03490994636826474</v>
       </c>
       <c r="J14">
-        <v>0.05440914609796297</v>
+        <v>0.03659536189327867</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>7.225689</v>
+        <v>7.402863</v>
       </c>
       <c r="N14">
-        <v>21.677067</v>
+        <v>22.208589</v>
       </c>
       <c r="O14">
-        <v>0.02519360694505809</v>
+        <v>0.03096469429353687</v>
       </c>
       <c r="P14">
-        <v>0.02585081322964185</v>
+        <v>0.03118728224898178</v>
       </c>
       <c r="Q14">
-        <v>3.980258742835</v>
+        <v>1.994294277885</v>
       </c>
       <c r="R14">
-        <v>35.822328685515</v>
+        <v>17.948648500965</v>
       </c>
       <c r="S14">
-        <v>0.001111018757128798</v>
+        <v>0.001080975817097085</v>
       </c>
       <c r="T14">
-        <v>0.001406520673762738</v>
+        <v>0.001141309880369314</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.5508483333333334</v>
+        <v>0.269395</v>
       </c>
       <c r="H15">
-        <v>1.652545</v>
+        <v>0.808185</v>
       </c>
       <c r="I15">
-        <v>0.04409923356952</v>
+        <v>0.03490994636826474</v>
       </c>
       <c r="J15">
-        <v>0.05440914609796297</v>
+        <v>0.03659536189327867</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>21.8744765</v>
+        <v>5.118919500000001</v>
       </c>
       <c r="N15">
-        <v>43.748953</v>
+        <v>10.237839</v>
       </c>
       <c r="O15">
-        <v>0.07626912299573232</v>
+        <v>0.02141141574965316</v>
       </c>
       <c r="P15">
-        <v>0.05217246470638207</v>
+        <v>0.0143768870013594</v>
       </c>
       <c r="Q15">
-        <v>12.04951892256417</v>
+        <v>1.3790113187025</v>
       </c>
       <c r="R15">
-        <v>72.29711353538501</v>
+        <v>8.274067912215001</v>
       </c>
       <c r="S15">
-        <v>0.003363409869131248</v>
+        <v>0.0007474713754890105</v>
       </c>
       <c r="T15">
-        <v>0.002838659254500359</v>
+        <v>0.0005261273827135213</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.5508483333333334</v>
+        <v>0.269395</v>
       </c>
       <c r="H16">
-        <v>1.652545</v>
+        <v>0.808185</v>
       </c>
       <c r="I16">
-        <v>0.04409923356952</v>
+        <v>0.03490994636826474</v>
       </c>
       <c r="J16">
-        <v>0.05440914609796297</v>
+        <v>0.03659536189327867</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>5.001688666666666</v>
+        <v>11.38837866666667</v>
       </c>
       <c r="N16">
-        <v>15.005066</v>
+        <v>34.165136</v>
       </c>
       <c r="O16">
-        <v>0.01743924743087499</v>
+        <v>0.04763530865185137</v>
       </c>
       <c r="P16">
-        <v>0.01789417169142159</v>
+        <v>0.04797773237673265</v>
       </c>
       <c r="Q16">
-        <v>2.755171865885556</v>
+        <v>3.067972270906667</v>
       </c>
       <c r="R16">
-        <v>24.79654679297</v>
+        <v>27.61175043816</v>
       </c>
       <c r="S16">
-        <v>0.0007690574457308078</v>
+        <v>0.001662946070271868</v>
       </c>
       <c r="T16">
-        <v>0.0009736066018605905</v>
+        <v>0.001755762479145404</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>7.100768</v>
+        <v>1.0662095</v>
       </c>
       <c r="H17">
-        <v>14.201536</v>
+        <v>2.132419</v>
       </c>
       <c r="I17">
-        <v>0.5684657783388168</v>
+        <v>0.138166322546203</v>
       </c>
       <c r="J17">
-        <v>0.4675778553924284</v>
+        <v>0.0965578982697073</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>203.934102</v>
+        <v>166.3936563333333</v>
       </c>
       <c r="N17">
-        <v>611.802306</v>
+        <v>499.180969</v>
       </c>
       <c r="O17">
-        <v>0.7110513071461264</v>
+        <v>0.6959913618211631</v>
       </c>
       <c r="P17">
-        <v>0.7295999567593805</v>
+        <v>0.7009944564025758</v>
       </c>
       <c r="Q17">
-        <v>1448.088745590336</v>
+        <v>177.4104971223352</v>
       </c>
       <c r="R17">
-        <v>8688.532473542016</v>
+        <v>1064.462982734011</v>
       </c>
       <c r="S17">
-        <v>0.4042083347556559</v>
+        <v>0.09616256698675389</v>
       </c>
       <c r="T17">
-        <v>0.3411447830759596</v>
+        <v>0.06768655140894869</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>7.100768</v>
+        <v>1.0662095</v>
       </c>
       <c r="H18">
-        <v>14.201536</v>
+        <v>2.132419</v>
       </c>
       <c r="I18">
-        <v>0.5684657783388168</v>
+        <v>0.138166322546203</v>
       </c>
       <c r="J18">
-        <v>0.4675778553924284</v>
+        <v>0.0965578982697073</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>146.311485</v>
       </c>
       <c r="O18">
-        <v>0.1700467154822082</v>
+        <v>0.2039972194837954</v>
       </c>
       <c r="P18">
-        <v>0.174482593613174</v>
+        <v>0.2054636419703505</v>
       </c>
       <c r="Q18">
-        <v>346.30797024016</v>
+        <v>51.9995650887025</v>
       </c>
       <c r="R18">
-        <v>2077.84782144096</v>
+        <v>311.997390532215</v>
       </c>
       <c r="S18">
-        <v>0.09666573847055281</v>
+        <v>0.02818554562572665</v>
       </c>
       <c r="T18">
-        <v>0.08158419692495654</v>
+        <v>0.01983913743949667</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>7.100768</v>
+        <v>1.0662095</v>
       </c>
       <c r="H19">
-        <v>14.201536</v>
+        <v>2.132419</v>
       </c>
       <c r="I19">
-        <v>0.5684657783388168</v>
+        <v>0.138166322546203</v>
       </c>
       <c r="J19">
-        <v>0.4675778553924284</v>
+        <v>0.0965578982697073</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>7.225689</v>
+        <v>7.402863</v>
       </c>
       <c r="N19">
-        <v>21.677067</v>
+        <v>22.208589</v>
       </c>
       <c r="O19">
-        <v>0.02519360694505809</v>
+        <v>0.03096469429353687</v>
       </c>
       <c r="P19">
-        <v>0.02585081322964185</v>
+        <v>0.03118728224898178</v>
       </c>
       <c r="Q19">
-        <v>51.307941229152</v>
+        <v>7.8930028577985</v>
       </c>
       <c r="R19">
-        <v>307.847647374912</v>
+        <v>47.358017146791</v>
       </c>
       <c r="S19">
-        <v>0.01432170338118467</v>
+        <v>0.004278277939305387</v>
       </c>
       <c r="T19">
-        <v>0.01208726781006615</v>
+        <v>0.003011378426705832</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>7.100768</v>
+        <v>1.0662095</v>
       </c>
       <c r="H20">
-        <v>14.201536</v>
+        <v>2.132419</v>
       </c>
       <c r="I20">
-        <v>0.5684657783388168</v>
+        <v>0.138166322546203</v>
       </c>
       <c r="J20">
-        <v>0.4675778553924284</v>
+        <v>0.0965578982697073</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>21.8744765</v>
+        <v>5.118919500000001</v>
       </c>
       <c r="N20">
-        <v>43.748953</v>
+        <v>10.237839</v>
       </c>
       <c r="O20">
-        <v>0.07626912299573232</v>
+        <v>0.02141141574965316</v>
       </c>
       <c r="P20">
-        <v>0.05217246470638207</v>
+        <v>0.0143768870013594</v>
       </c>
       <c r="Q20">
-        <v>155.325582747952</v>
+        <v>5.457840600635251</v>
       </c>
       <c r="R20">
-        <v>621.302330991808</v>
+        <v>21.831362402541</v>
       </c>
       <c r="S20">
-        <v>0.04335638636698793</v>
+        <v>0.002958336574637429</v>
       </c>
       <c r="T20">
-        <v>0.02439468915794729</v>
+        <v>0.001388201992512339</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>7.100768</v>
+        <v>1.0662095</v>
       </c>
       <c r="H21">
-        <v>14.201536</v>
+        <v>2.132419</v>
       </c>
       <c r="I21">
-        <v>0.5684657783388168</v>
+        <v>0.138166322546203</v>
       </c>
       <c r="J21">
-        <v>0.4675778553924284</v>
+        <v>0.0965578982697073</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>5.001688666666666</v>
+        <v>11.38837866666667</v>
       </c>
       <c r="N21">
-        <v>15.005066</v>
+        <v>34.165136</v>
       </c>
       <c r="O21">
-        <v>0.01743924743087499</v>
+        <v>0.04763530865185137</v>
       </c>
       <c r="P21">
-        <v>0.01789417169142159</v>
+        <v>0.04797773237673265</v>
       </c>
       <c r="Q21">
-        <v>35.51583083022933</v>
+        <v>12.14239752399734</v>
       </c>
       <c r="R21">
-        <v>213.094984981376</v>
+        <v>72.854385143984</v>
       </c>
       <c r="S21">
-        <v>0.009913615364435566</v>
+        <v>0.00658159541977963</v>
       </c>
       <c r="T21">
-        <v>0.00836691842349881</v>
+        <v>0.004632629002043793</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,22 +1774,22 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G22">
-        <v>0.481638</v>
+        <v>0.1963773333333333</v>
       </c>
       <c r="H22">
-        <v>1.444914</v>
+        <v>0.589132</v>
       </c>
       <c r="I22">
-        <v>0.03855846586560088</v>
+        <v>0.02544784489173709</v>
       </c>
       <c r="J22">
-        <v>0.04757300825393079</v>
+        <v>0.02667644010085692</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>203.934102</v>
+        <v>166.3936563333333</v>
       </c>
       <c r="N22">
-        <v>611.802306</v>
+        <v>499.180969</v>
       </c>
       <c r="O22">
-        <v>0.7110513071461264</v>
+        <v>0.6959913618211631</v>
       </c>
       <c r="P22">
-        <v>0.7295999567593805</v>
+        <v>0.7009944564025758</v>
       </c>
       <c r="Q22">
-        <v>98.22241301907601</v>
+        <v>32.6759425143231</v>
       </c>
       <c r="R22">
-        <v>884.001717171684</v>
+        <v>294.083482628908</v>
       </c>
       <c r="S22">
-        <v>0.0274170475552848</v>
+        <v>0.01771148022161382</v>
       </c>
       <c r="T22">
-        <v>0.03470926476498156</v>
+        <v>0.01870003662725607</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,22 +1836,22 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G23">
-        <v>0.481638</v>
+        <v>0.1963773333333333</v>
       </c>
       <c r="H23">
-        <v>1.444914</v>
+        <v>0.589132</v>
       </c>
       <c r="I23">
-        <v>0.03855846586560088</v>
+        <v>0.02544784489173709</v>
       </c>
       <c r="J23">
-        <v>0.04757300825393079</v>
+        <v>0.02667644010085692</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>146.311485</v>
       </c>
       <c r="O23">
-        <v>0.1700467154822082</v>
+        <v>0.2039972194837954</v>
       </c>
       <c r="P23">
-        <v>0.174482593613174</v>
+        <v>0.2054636419703505</v>
       </c>
       <c r="Q23">
-        <v>23.48972367081</v>
+        <v>9.577419753446668</v>
       </c>
       <c r="R23">
-        <v>211.40751303729</v>
+        <v>86.19677778102</v>
       </c>
       <c r="S23">
-        <v>0.006556740474478269</v>
+        <v>0.005191289599769273</v>
       </c>
       <c r="T23">
-        <v>0.008300661866126781</v>
+        <v>0.005481038537925966</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,22 +1898,22 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G24">
-        <v>0.481638</v>
+        <v>0.1963773333333333</v>
       </c>
       <c r="H24">
-        <v>1.444914</v>
+        <v>0.589132</v>
       </c>
       <c r="I24">
-        <v>0.03855846586560088</v>
+        <v>0.02544784489173709</v>
       </c>
       <c r="J24">
-        <v>0.04757300825393079</v>
+        <v>0.02667644010085692</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>7.225689</v>
+        <v>7.402863</v>
       </c>
       <c r="N24">
-        <v>21.677067</v>
+        <v>22.208589</v>
       </c>
       <c r="O24">
-        <v>0.02519360694505809</v>
+        <v>0.03096469429353687</v>
       </c>
       <c r="P24">
-        <v>0.02585081322964185</v>
+        <v>0.03118728224898178</v>
       </c>
       <c r="Q24">
-        <v>3.480166398582</v>
+        <v>1.453754494972</v>
       </c>
       <c r="R24">
-        <v>31.321497587238</v>
+        <v>13.083790454748</v>
       </c>
       <c r="S24">
-        <v>0.0009714268334223879</v>
+        <v>0.0007879847375019827</v>
       </c>
       <c r="T24">
-        <v>0.001229800951144575</v>
+        <v>0.0008319656668234807</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,22 +1960,22 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G25">
-        <v>0.481638</v>
+        <v>0.1963773333333333</v>
       </c>
       <c r="H25">
-        <v>1.444914</v>
+        <v>0.589132</v>
       </c>
       <c r="I25">
-        <v>0.03855846586560088</v>
+        <v>0.02544784489173709</v>
       </c>
       <c r="J25">
-        <v>0.04757300825393079</v>
+        <v>0.02667644010085692</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>21.8744765</v>
+        <v>5.118919500000001</v>
       </c>
       <c r="N25">
-        <v>43.748953</v>
+        <v>10.237839</v>
       </c>
       <c r="O25">
-        <v>0.07626912299573232</v>
+        <v>0.02141141574965316</v>
       </c>
       <c r="P25">
-        <v>0.05217246470638207</v>
+        <v>0.0143768870013594</v>
       </c>
       <c r="Q25">
-        <v>10.535579112507</v>
+        <v>1.005239760958</v>
       </c>
       <c r="R25">
-        <v>63.213474675042</v>
+        <v>6.031438565748</v>
       </c>
       <c r="S25">
-        <v>0.00294082037563026</v>
+        <v>0.0005448743869096701</v>
       </c>
       <c r="T25">
-        <v>0.002482001094104627</v>
+        <v>0.0003835241649285525</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,22 +2022,22 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F26">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G26">
-        <v>0.481638</v>
+        <v>0.1963773333333333</v>
       </c>
       <c r="H26">
-        <v>1.444914</v>
+        <v>0.589132</v>
       </c>
       <c r="I26">
-        <v>0.03855846586560088</v>
+        <v>0.02544784489173709</v>
       </c>
       <c r="J26">
-        <v>0.04757300825393079</v>
+        <v>0.02667644010085692</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>5.001688666666666</v>
+        <v>11.38837866666667</v>
       </c>
       <c r="N26">
-        <v>15.005066</v>
+        <v>34.165136</v>
       </c>
       <c r="O26">
-        <v>0.01743924743087499</v>
+        <v>0.04763530865185137</v>
       </c>
       <c r="P26">
-        <v>0.01789417169142159</v>
+        <v>0.04797773237673265</v>
       </c>
       <c r="Q26">
-        <v>2.409003326036</v>
+        <v>2.236419433550223</v>
       </c>
       <c r="R26">
-        <v>21.681029934324</v>
+        <v>20.127774901952</v>
       </c>
       <c r="S26">
-        <v>0.0006724306267851613</v>
+        <v>0.001212215945942335</v>
       </c>
       <c r="T26">
-        <v>0.000851279577573254</v>
+        <v>0.001279875103922852</v>
       </c>
     </row>
   </sheetData>
